--- a/work-in-progress/Peppol Code Lists - Document types v9.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/dev/git-peppol/edec-codelists/work-in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23917F2D-71A3-434A-BBFF-8C369786D4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B786DB-F5CB-6D4E-9F31-844F318DBEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="1040" windowWidth="38860" windowHeight="23680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="870">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2700,6 +2700,36 @@
   <si>
     <t>TICC-267
 TICC-411</t>
+  </si>
+  <si>
+    <t>NG PINT Invoice v1.0</t>
+  </si>
+  <si>
+    <t>NG PINT Credit Note v1.0</t>
+  </si>
+  <si>
+    <t>NG PINT Self-Billing Invoice v1.0</t>
+  </si>
+  <si>
+    <t>NG PINT Self-Billing Credit Note v1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:billing-1@ng-1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:billing-1@ng-1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:selfbilling-1@ng-1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:selfbilling-1@ng-1::2.1</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>TICC-416</t>
   </si>
 </sst>
 </file>
@@ -3367,11 +3397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:N310"/>
+  <dimension ref="A1:N314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A311" sqref="A311"/>
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A311" sqref="A311:A314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15166,6 +15196,158 @@
         <v>550</v>
       </c>
     </row>
+    <row r="311" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>860</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D311" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="E311" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H311" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="I311" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J311" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K311" s="20">
+        <v>3</v>
+      </c>
+      <c r="L311" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M311" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="N311" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>861</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D312" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="E312" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H312" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="I312" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J312" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K312" s="20">
+        <v>3</v>
+      </c>
+      <c r="L312" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M312" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="N312" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>862</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D313" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="E313" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H313" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="I313" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J313" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K313" s="20">
+        <v>3</v>
+      </c>
+      <c r="L313" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M313" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="N313" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>863</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D314" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="E314" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="I314" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J314" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K314" s="20">
+        <v>3</v>
+      </c>
+      <c r="L314" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M314" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="N314" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N307" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v9.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/dev/git-peppol/edec-codelists/work-in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B786DB-F5CB-6D4E-9F31-844F318DBEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ECCB16-232F-4E44-BF4D-DD19EB62C630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="1040" windowWidth="38860" windowHeight="23680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="871">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2730,6 +2730,11 @@
   </si>
   <si>
     <t>TICC-416</t>
+  </si>
+  <si>
+    <t>TICC-215
+TICC-255
+TICC-423</t>
   </si>
 </sst>
 </file>
@@ -3400,8 +3405,8 @@
   <dimension ref="A1:N314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A311" sqref="A311:A314"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10408,41 +10413,45 @@
         <v>647</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A184" s="5" t="s">
+    <row r="184" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A184" s="31" t="s">
         <v>843</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C184" s="5" t="s">
+      <c r="B184" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C184" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="D184" s="24" t="s">
+      <c r="D184" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="E184" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H184" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="I184" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K184" s="20">
-        <v>1</v>
-      </c>
-      <c r="L184" s="4" t="s">
+      <c r="E184" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="F184" s="33" t="s">
+        <v>868</v>
+      </c>
+      <c r="G184" s="42"/>
+      <c r="H184" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="I184" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K184" s="29">
+        <v>1</v>
+      </c>
+      <c r="L184" s="27" t="s">
         <v>841</v>
       </c>
-      <c r="M184" s="4" t="s">
+      <c r="M184" s="27" t="s">
         <v>841</v>
       </c>
-      <c r="N184" s="12" t="s">
+      <c r="N184" s="31" t="s">
         <v>429</v>
       </c>
     </row>

--- a/work-in-progress/Peppol Code Lists - Document types v9.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/dev/git-peppol/edec-codelists/work-in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D34F708-BB9B-464C-9D17-7650063DCAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E891064E-4443-3847-8310-7F1298860D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="1040" windowWidth="38860" windowHeight="23680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$N$307</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$N$315</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="876">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2748,6 +2748,19 @@
   <si>
     <t>TICC-290
 TICC-425</t>
+  </si>
+  <si>
+    <t>TICC-373
+TICC-427</t>
+  </si>
+  <si>
+    <t>urn:peppol:schema:taxdata:1.0::TaxData##urn:peppol:taxdata:ae-1::1.0</t>
+  </si>
+  <si>
+    <t>TICC-427</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:peppol:taxreporting</t>
   </si>
 </sst>
 </file>
@@ -2874,7 +2887,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3002,6 +3015,29 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3415,11 +3451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:N314"/>
+  <dimension ref="A1:N315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A243" sqref="A243"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14390,75 +14426,89 @@
         <v>494</v>
       </c>
     </row>
-    <row r="284" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+    <row r="284" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A284" s="47" t="s">
         <v>805</v>
       </c>
-      <c r="B284" s="5" t="s">
+      <c r="B284" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C284" s="48" t="s">
         <v>801</v>
       </c>
-      <c r="D284" s="24" t="s">
+      <c r="D284" s="32" t="s">
         <v>718</v>
       </c>
-      <c r="E284" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H284" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="I284" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J284" s="5" t="b">
+      <c r="E284" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="F284" s="35" t="s">
+        <v>859</v>
+      </c>
+      <c r="G284" s="42">
+        <v>46112</v>
+      </c>
+      <c r="H284" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="I284" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J284" s="31" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L284" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M284" s="4" t="s">
+      <c r="K284" s="29"/>
+      <c r="L284" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M284" s="27" t="s">
         <v>803</v>
       </c>
-      <c r="N284" s="5" t="s">
+      <c r="N284" s="31" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="285" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+    <row r="285" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A285" s="47" t="s">
         <v>806</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B285" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="C285" s="48" t="s">
         <v>802</v>
       </c>
-      <c r="D285" s="24" t="s">
+      <c r="D285" s="32" t="s">
         <v>718</v>
       </c>
-      <c r="E285" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H285" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="I285" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J285" s="5" t="b">
+      <c r="E285" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="F285" s="35" t="s">
+        <v>859</v>
+      </c>
+      <c r="G285" s="42">
+        <v>46112</v>
+      </c>
+      <c r="H285" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="I285" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J285" s="31" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L285" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M285" s="4" t="s">
+      <c r="K285" s="29"/>
+      <c r="L285" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M285" s="27" t="s">
         <v>803</v>
       </c>
-      <c r="N285" s="5" t="s">
+      <c r="N285" s="31" t="s">
         <v>804</v>
       </c>
     </row>
@@ -15525,8 +15575,47 @@
         <v>494</v>
       </c>
     </row>
+    <row r="315" spans="1:14" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A315" s="49" t="s">
+        <v>805</v>
+      </c>
+      <c r="B315" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C315" s="51" t="s">
+        <v>873</v>
+      </c>
+      <c r="D315" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="E315" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F315" s="53"/>
+      <c r="G315" s="54"/>
+      <c r="H315" s="50" t="s">
+        <v>874</v>
+      </c>
+      <c r="I315" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J315" s="50" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K315" s="52"/>
+      <c r="L315" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="M315" s="55" t="s">
+        <v>803</v>
+      </c>
+      <c r="N315" s="50" t="s">
+        <v>875</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N307" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N315" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/work-in-progress/Peppol Code Lists - Document types v9.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/dev/git-peppol/edec-codelists/work-in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E891064E-4443-3847-8310-7F1298860D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F15629F-D79E-3640-9558-5DFAE179AB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="1040" windowWidth="38860" windowHeight="23680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2547,15 +2547,6 @@
     <t>9.2</t>
   </si>
   <si>
-    <t>TICC-102
-TICC-390</t>
-  </si>
-  <si>
-    <t>TICC-102
-TICC-173
-TICC-390</t>
-  </si>
-  <si>
     <t>Peppol Message Level Status v1.0</t>
   </si>
   <si>
@@ -2761,6 +2752,17 @@
   </si>
   <si>
     <t>cenbii-procid-ubl::urn:peppol:taxreporting</t>
+  </si>
+  <si>
+    <t>TICC-102
+TICC-390
+TICC-428</t>
+  </si>
+  <si>
+    <t>TICC-102
+TICC-173
+TICC-390
+TICC-428</t>
   </si>
 </sst>
 </file>
@@ -2887,7 +2889,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3019,24 +3021,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3454,8 +3440,8 @@
   <dimension ref="A1:N315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5346,13 +5332,13 @@
         <v>344</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G47" s="42">
         <v>46025</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I47" s="31" t="b">
         <v>0</v>
@@ -5389,13 +5375,13 @@
         <v>344</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G48" s="42">
         <v>46025</v>
       </c>
       <c r="H48" s="31" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I48" s="31" t="b">
         <v>0</v>
@@ -6278,7 +6264,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="31" t="s">
         <v>443</v>
       </c>
@@ -6297,9 +6283,11 @@
       <c r="F72" s="35" t="s">
         <v>810</v>
       </c>
-      <c r="G72" s="45"/>
+      <c r="G72" s="45">
+        <v>46112</v>
+      </c>
       <c r="H72" s="31" t="s">
-        <v>811</v>
+        <v>874</v>
       </c>
       <c r="I72" s="31" t="b">
         <v>0</v>
@@ -6321,7 +6309,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="31" t="s">
         <v>737</v>
       </c>
@@ -6340,9 +6328,11 @@
       <c r="F73" s="35" t="s">
         <v>810</v>
       </c>
-      <c r="G73" s="45"/>
+      <c r="G73" s="45">
+        <v>46112</v>
+      </c>
       <c r="H73" s="31" t="s">
-        <v>811</v>
+        <v>874</v>
       </c>
       <c r="I73" s="31" t="b">
         <v>0</v>
@@ -6364,7 +6354,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" s="31" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A74" s="31" t="s">
         <v>112</v>
       </c>
@@ -6383,9 +6373,11 @@
       <c r="F74" s="35" t="s">
         <v>810</v>
       </c>
-      <c r="G74" s="45"/>
+      <c r="G74" s="45">
+        <v>46112</v>
+      </c>
       <c r="H74" s="31" t="s">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="I74" s="31" t="b">
         <v>0</v>
@@ -6405,7 +6397,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" s="31" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="s">
         <v>738</v>
       </c>
@@ -6424,9 +6416,11 @@
       <c r="F75" s="35" t="s">
         <v>810</v>
       </c>
-      <c r="G75" s="45"/>
+      <c r="G75" s="45">
+        <v>46112</v>
+      </c>
       <c r="H75" s="31" t="s">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="I75" s="31" t="b">
         <v>0</v>
@@ -6678,13 +6672,13 @@
         <v>344</v>
       </c>
       <c r="F81" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G81" s="45">
         <v>46235</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I81" s="31" t="b">
         <v>0</v>
@@ -6721,13 +6715,13 @@
         <v>344</v>
       </c>
       <c r="F82" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G82" s="45">
         <v>46235</v>
       </c>
       <c r="H82" s="31" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I82" s="31" t="b">
         <v>0</v>
@@ -6807,13 +6801,13 @@
         <v>344</v>
       </c>
       <c r="F84" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G84" s="45">
         <v>46235</v>
       </c>
       <c r="H84" s="31" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I84" s="31" t="b">
         <v>0</v>
@@ -7287,13 +7281,13 @@
         <v>344</v>
       </c>
       <c r="F96" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G96" s="42">
         <v>46235</v>
       </c>
       <c r="H96" s="31" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I96" s="31" t="b">
         <v>0</v>
@@ -7330,13 +7324,13 @@
         <v>344</v>
       </c>
       <c r="F97" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G97" s="42">
         <v>46235</v>
       </c>
       <c r="H97" s="31" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I97" s="31" t="b">
         <v>0</v>
@@ -7416,13 +7410,13 @@
         <v>344</v>
       </c>
       <c r="F99" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G99" s="42">
         <v>46235</v>
       </c>
       <c r="H99" s="31" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I99" s="31" t="b">
         <v>0</v>
@@ -9186,13 +9180,13 @@
         <v>344</v>
       </c>
       <c r="F148" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G148" s="42">
         <v>46235</v>
       </c>
       <c r="H148" s="31" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I148" s="31" t="b">
         <v>0</v>
@@ -9228,13 +9222,13 @@
         <v>344</v>
       </c>
       <c r="F149" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G149" s="42">
         <v>46235</v>
       </c>
       <c r="H149" s="31" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I149" s="31" t="b">
         <v>0</v>
@@ -9270,13 +9264,13 @@
         <v>344</v>
       </c>
       <c r="F150" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G150" s="42">
         <v>46235</v>
       </c>
       <c r="H150" s="31" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I150" s="31" t="b">
         <v>0</v>
@@ -9312,13 +9306,13 @@
         <v>344</v>
       </c>
       <c r="F151" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G151" s="42">
         <v>46235</v>
       </c>
       <c r="H151" s="31" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I151" s="31" t="b">
         <v>0</v>
@@ -9354,13 +9348,13 @@
         <v>344</v>
       </c>
       <c r="F152" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G152" s="42">
         <v>46235</v>
       </c>
       <c r="H152" s="31" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I152" s="31" t="b">
         <v>0</v>
@@ -9396,13 +9390,13 @@
         <v>344</v>
       </c>
       <c r="F153" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G153" s="42">
         <v>46235</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I153" s="31" t="b">
         <v>0</v>
@@ -10231,11 +10225,11 @@
         <v>344</v>
       </c>
       <c r="F175" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G175" s="42"/>
       <c r="H175" s="31" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I175" s="31" t="b">
         <v>0</v>
@@ -10271,11 +10265,11 @@
         <v>344</v>
       </c>
       <c r="F176" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G176" s="42"/>
       <c r="H176" s="31" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I176" s="31" t="b">
         <v>0</v>
@@ -10311,11 +10305,11 @@
         <v>344</v>
       </c>
       <c r="F177" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G177" s="42"/>
       <c r="H177" s="31" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I177" s="31" t="b">
         <v>0</v>
@@ -10351,11 +10345,11 @@
         <v>344</v>
       </c>
       <c r="F178" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G178" s="42"/>
       <c r="H178" s="31" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I178" s="31" t="b">
         <v>0</v>
@@ -10391,13 +10385,13 @@
         <v>344</v>
       </c>
       <c r="F179" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G179" s="42">
         <v>46235</v>
       </c>
       <c r="H179" s="31" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I179" s="31" t="b">
         <v>0</v>
@@ -10433,11 +10427,11 @@
         <v>344</v>
       </c>
       <c r="F180" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G180" s="42"/>
       <c r="H180" s="31" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I180" s="31" t="b">
         <v>0</v>
@@ -10542,7 +10536,7 @@
     </row>
     <row r="183" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
@@ -10569,10 +10563,10 @@
         <v>1</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N183" s="37" t="s">
         <v>638</v>
@@ -10580,7 +10574,7 @@
     </row>
     <row r="184" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" s="31" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B184" s="27" t="s">
         <v>56</v>
@@ -10595,11 +10589,11 @@
         <v>344</v>
       </c>
       <c r="F184" s="33" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G184" s="42"/>
       <c r="H184" s="31" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I184" s="31" t="b">
         <v>0</v>
@@ -10611,10 +10605,10 @@
         <v>1</v>
       </c>
       <c r="L184" s="27" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M184" s="27" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N184" s="31" t="s">
         <v>422</v>
@@ -10622,7 +10616,7 @@
     </row>
     <row r="185" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>56</v>
@@ -10649,10 +10643,10 @@
         <v>1</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N185" s="12" t="s">
         <v>423</v>
@@ -10904,11 +10898,11 @@
         <v>344</v>
       </c>
       <c r="F192" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G192" s="42"/>
       <c r="H192" s="31" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I192" s="31" t="b">
         <v>0</v>
@@ -10944,11 +10938,11 @@
         <v>344</v>
       </c>
       <c r="F193" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G193" s="42"/>
       <c r="H193" s="31" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I193" s="31" t="b">
         <v>0</v>
@@ -10984,11 +10978,11 @@
         <v>344</v>
       </c>
       <c r="F194" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G194" s="42"/>
       <c r="H194" s="31" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I194" s="31" t="b">
         <v>0</v>
@@ -11024,11 +11018,11 @@
         <v>344</v>
       </c>
       <c r="F195" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G195" s="42"/>
       <c r="H195" s="31" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I195" s="31" t="b">
         <v>0</v>
@@ -11064,13 +11058,13 @@
         <v>344</v>
       </c>
       <c r="F196" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G196" s="42">
         <v>46235</v>
       </c>
       <c r="H196" s="31" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I196" s="31" t="b">
         <v>0</v>
@@ -11106,11 +11100,11 @@
         <v>344</v>
       </c>
       <c r="F197" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G197" s="42"/>
       <c r="H197" s="31" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I197" s="31" t="b">
         <v>0</v>
@@ -11750,7 +11744,7 @@
     </row>
     <row r="214" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="31" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B214" s="27" t="s">
         <v>56</v>
@@ -11765,13 +11759,13 @@
         <v>344</v>
       </c>
       <c r="F214" s="35" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G214" s="42">
         <v>46025</v>
       </c>
       <c r="H214" s="31" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I214" s="31" t="b">
         <v>0</v>
@@ -11783,10 +11777,10 @@
         <v>1</v>
       </c>
       <c r="L214" s="27" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M214" s="27" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N214" s="46" t="s">
         <v>540</v>
@@ -11794,7 +11788,7 @@
     </row>
     <row r="215" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="31" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B215" s="27" t="s">
         <v>56</v>
@@ -11809,13 +11803,13 @@
         <v>344</v>
       </c>
       <c r="F215" s="35" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G215" s="42">
         <v>46025</v>
       </c>
       <c r="H215" s="31" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I215" s="31" t="b">
         <v>0</v>
@@ -11827,10 +11821,10 @@
         <v>1</v>
       </c>
       <c r="L215" s="27" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M215" s="27" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N215" s="46" t="s">
         <v>541</v>
@@ -11838,7 +11832,7 @@
     </row>
     <row r="216" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>56</v>
@@ -11865,10 +11859,10 @@
         <v>1</v>
       </c>
       <c r="L216" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N216" s="36" t="s">
         <v>542</v>
@@ -11876,7 +11870,7 @@
     </row>
     <row r="217" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>56</v>
@@ -11903,10 +11897,10 @@
         <v>1</v>
       </c>
       <c r="L217" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N217" s="36" t="s">
         <v>543</v>
@@ -11914,7 +11908,7 @@
     </row>
     <row r="218" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>56</v>
@@ -11941,10 +11935,10 @@
         <v>1</v>
       </c>
       <c r="L218" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N218" s="36" t="s">
         <v>544</v>
@@ -11952,7 +11946,7 @@
     </row>
     <row r="219" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>56</v>
@@ -11979,10 +11973,10 @@
         <v>1</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N219" s="36" t="s">
         <v>545</v>
@@ -12856,13 +12850,13 @@
         <v>344</v>
       </c>
       <c r="F242" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G242" s="42">
         <v>46235</v>
       </c>
       <c r="H242" s="31" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I242" s="31" t="b">
         <v>0</v>
@@ -13167,7 +13161,7 @@
         <v>45909</v>
       </c>
       <c r="H250" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I250" s="13" t="b">
         <v>0</v>
@@ -13211,7 +13205,7 @@
         <v>45909</v>
       </c>
       <c r="H251" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I251" s="13" t="b">
         <v>0</v>
@@ -13255,7 +13249,7 @@
         <v>45909</v>
       </c>
       <c r="H252" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I252" s="13" t="b">
         <v>0</v>
@@ -13299,7 +13293,7 @@
         <v>45909</v>
       </c>
       <c r="H253" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I253" s="13" t="b">
         <v>0</v>
@@ -14443,13 +14437,13 @@
         <v>344</v>
       </c>
       <c r="F284" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G284" s="42">
         <v>46112</v>
       </c>
       <c r="H284" s="31" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I284" s="31" t="b">
         <v>0</v>
@@ -14486,13 +14480,13 @@
         <v>344</v>
       </c>
       <c r="F285" s="35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G285" s="42">
         <v>46112</v>
       </c>
       <c r="H285" s="31" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I285" s="31" t="b">
         <v>0</v>
@@ -15161,13 +15155,13 @@
     </row>
     <row r="304" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B304" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D304" s="24" t="s">
         <v>810</v>
@@ -15176,7 +15170,7 @@
         <v>345</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I304" s="5" t="b">
         <v>0</v>
@@ -15189,21 +15183,21 @@
         <v>416</v>
       </c>
       <c r="M304" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="N304" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="305" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D305" s="24" t="s">
         <v>810</v>
@@ -15212,7 +15206,7 @@
         <v>345</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I305" s="5" t="b">
         <v>0</v>
@@ -15224,30 +15218,30 @@
         <v>558</v>
       </c>
       <c r="M305" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N305" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="306" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>566</v>
       </c>
       <c r="C306" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D306" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="E306" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H306" s="5" t="s">
         <v>827</v>
-      </c>
-      <c r="D306" s="24" t="s">
-        <v>828</v>
-      </c>
-      <c r="E306" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H306" s="5" t="s">
-        <v>829</v>
       </c>
       <c r="I306" s="5" t="b">
         <v>0</v>
@@ -15271,22 +15265,22 @@
     </row>
     <row r="307" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>566</v>
       </c>
       <c r="C307" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D307" s="24" t="s">
         <v>826</v>
       </c>
-      <c r="D307" s="24" t="s">
-        <v>828</v>
-      </c>
       <c r="E307" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I307" s="5" t="b">
         <v>0</v>
@@ -15310,22 +15304,22 @@
     </row>
     <row r="308" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D308" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E308" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I308" s="5" t="b">
         <v>0</v>
@@ -15338,48 +15332,48 @@
         <v>1</v>
       </c>
       <c r="L308" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M308" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N308" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="309" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C309" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="B309" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>848</v>
-      </c>
       <c r="D309" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="E309" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H309" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="I309" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J309" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K309" s="20">
+        <v>1</v>
+      </c>
+      <c r="L309" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="E309" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H309" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="I309" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J309" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K309" s="20">
-        <v>1</v>
-      </c>
-      <c r="L309" s="4" t="s">
-        <v>832</v>
-      </c>
       <c r="M309" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N309" s="36" t="s">
         <v>540</v>
@@ -15387,37 +15381,37 @@
     </row>
     <row r="310" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C310" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="B310" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C310" s="5" t="s">
-        <v>849</v>
-      </c>
       <c r="D310" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="E310" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="I310" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J310" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K310" s="20">
+        <v>1</v>
+      </c>
+      <c r="L310" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="E310" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H310" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="I310" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J310" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K310" s="20">
-        <v>1</v>
-      </c>
-      <c r="L310" s="4" t="s">
-        <v>832</v>
-      </c>
       <c r="M310" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N310" s="36" t="s">
         <v>541</v>
@@ -15425,22 +15419,22 @@
     </row>
     <row r="311" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>566</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D311" s="24" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E311" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I311" s="5" t="b">
         <v>0</v>
@@ -15463,22 +15457,22 @@
     </row>
     <row r="312" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B312" s="5" t="s">
         <v>566</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D312" s="24" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E312" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I312" s="5" t="b">
         <v>0</v>
@@ -15501,22 +15495,22 @@
     </row>
     <row r="313" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>566</v>
       </c>
       <c r="C313" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D313" s="24" t="s">
         <v>857</v>
       </c>
-      <c r="D313" s="24" t="s">
-        <v>859</v>
-      </c>
       <c r="E313" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I313" s="5" t="b">
         <v>0</v>
@@ -15539,22 +15533,22 @@
     </row>
     <row r="314" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B314" s="5" t="s">
         <v>566</v>
       </c>
       <c r="C314" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D314" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="E314" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H314" s="5" t="s">
         <v>858</v>
-      </c>
-      <c r="D314" s="24" t="s">
-        <v>859</v>
-      </c>
-      <c r="E314" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H314" s="5" t="s">
-        <v>860</v>
       </c>
       <c r="I314" s="5" t="b">
         <v>0</v>
@@ -15575,43 +15569,41 @@
         <v>494</v>
       </c>
     </row>
-    <row r="315" spans="1:14" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A315" s="49" t="s">
+    <row r="315" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
         <v>805</v>
       </c>
-      <c r="B315" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C315" s="51" t="s">
+      <c r="B315" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D315" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="E315" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F315" s="49"/>
+      <c r="H315" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="I315" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J315" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L315" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M315" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="N315" s="5" t="s">
         <v>873</v>
-      </c>
-      <c r="D315" s="24" t="s">
-        <v>859</v>
-      </c>
-      <c r="E315" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="F315" s="53"/>
-      <c r="G315" s="54"/>
-      <c r="H315" s="50" t="s">
-        <v>874</v>
-      </c>
-      <c r="I315" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J315" s="50" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="K315" s="52"/>
-      <c r="L315" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="M315" s="55" t="s">
-        <v>803</v>
-      </c>
-      <c r="N315" s="50" t="s">
-        <v>875</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v9.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/dev/git-peppol/edec-codelists/work-in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F15629F-D79E-3640-9558-5DFAE179AB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD98E5A6-69DA-C945-BA25-EB0F677C3BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="1040" windowWidth="38860" windowHeight="23680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="880">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1714,12 +1714,6 @@
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:waybill:1</t>
   </si>
   <si>
-    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:transportation_status_w_request:1</t>
-  </si>
-  <si>
-    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:transportation_status_only:1</t>
-  </si>
-  <si>
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:despatch_advice_w_receipt_advice:1</t>
   </si>
   <si>
@@ -2763,6 +2757,30 @@
 TICC-173
 TICC-390
 TICC-428</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:transport_execution_plan_w_request:1
+cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:advanced_transport_execution_plan:1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:transport_execution_plan_only:1
+cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:advanced_transport_execution_plan:1</t>
+  </si>
+  <si>
+    <t>TICC-411
+TICC-429</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:transportation_status_w_request:1
+cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:advanced_transport_execution_plan:1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:transportation_status_only:1
+cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:advanced_transport_execution_plan:1</t>
+  </si>
+  <si>
+    <t>TICC-267
+TICC-429</t>
   </si>
 </sst>
 </file>
@@ -2889,7 +2907,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3023,6 +3041,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3440,8 +3461,8 @@
   <dimension ref="A1:N315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H218" sqref="H218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3480,7 +3501,7 @@
         <v>343</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>393</v>
@@ -3489,7 +3510,7 @@
         <v>107</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>421</v>
@@ -3501,7 +3522,7 @@
         <v>109</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>152</v>
@@ -3541,7 +3562,7 @@
         <v>110</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>138</v>
@@ -3581,7 +3602,7 @@
         <v>110</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N3" s="31" t="s">
         <v>138</v>
@@ -3621,7 +3642,7 @@
         <v>110</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N4" s="31" t="s">
         <v>138</v>
@@ -3661,7 +3682,7 @@
         <v>111</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>139</v>
@@ -3701,7 +3722,7 @@
         <v>111</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="N6" s="31" t="s">
         <v>140</v>
@@ -3741,7 +3762,7 @@
         <v>111</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>139</v>
@@ -3781,7 +3802,7 @@
         <v>111</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>141</v>
@@ -3821,7 +3842,7 @@
         <v>111</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N9" s="31" t="s">
         <v>142</v>
@@ -3864,7 +3885,7 @@
         <v>111</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N10" s="31" t="s">
         <v>143</v>
@@ -3904,7 +3925,7 @@
         <v>111</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N11" s="31" t="s">
         <v>143</v>
@@ -3944,7 +3965,7 @@
         <v>111</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N12" s="31" t="s">
         <v>144</v>
@@ -3984,7 +4005,7 @@
         <v>111</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N13" s="31" t="s">
         <v>145</v>
@@ -4024,7 +4045,7 @@
         <v>111</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N14" s="31" t="s">
         <v>146</v>
@@ -4032,7 +4053,7 @@
     </row>
     <row r="15" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>56</v>
@@ -4064,7 +4085,7 @@
         <v>111</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N15" s="31" t="s">
         <v>146</v>
@@ -4104,7 +4125,7 @@
         <v>111</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N16" s="31" t="s">
         <v>146</v>
@@ -4144,7 +4165,7 @@
         <v>111</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N17" s="31" t="s">
         <v>147</v>
@@ -4152,7 +4173,7 @@
     </row>
     <row r="18" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>56</v>
@@ -4184,7 +4205,7 @@
         <v>111</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N18" s="31" t="s">
         <v>147</v>
@@ -4224,7 +4245,7 @@
         <v>111</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N19" s="31" t="s">
         <v>148</v>
@@ -4264,7 +4285,7 @@
         <v>111</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N20" s="31" t="s">
         <v>148</v>
@@ -4304,7 +4325,7 @@
         <v>111</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N21" s="31" t="s">
         <v>148</v>
@@ -4344,7 +4365,7 @@
         <v>111</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N22" s="31" t="s">
         <v>148</v>
@@ -4352,7 +4373,7 @@
     </row>
     <row r="23" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>56</v>
@@ -4384,7 +4405,7 @@
         <v>111</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N23" s="31" t="s">
         <v>148</v>
@@ -4424,7 +4445,7 @@
         <v>111</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N24" s="31" t="s">
         <v>148</v>
@@ -4462,7 +4483,7 @@
         <v>111</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N25" s="31" t="s">
         <v>144</v>
@@ -4495,7 +4516,7 @@
         <v>111</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>147</v>
@@ -4535,7 +4556,7 @@
         <v>111</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N27" s="31" t="s">
         <v>149</v>
@@ -4578,7 +4599,7 @@
         <v>111</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N28" s="31" t="s">
         <v>149</v>
@@ -4618,7 +4639,7 @@
         <v>111</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N29" s="31" t="s">
         <v>149</v>
@@ -4658,7 +4679,7 @@
         <v>111</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N30" s="31" t="s">
         <v>150</v>
@@ -4698,7 +4719,7 @@
         <v>111</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N31" s="31" t="s">
         <v>151</v>
@@ -4721,7 +4742,7 @@
         <v>345</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I32" s="5" t="b">
         <v>0</v>
@@ -4737,15 +4758,15 @@
         <v>111</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -4760,7 +4781,7 @@
         <v>345</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I33" s="5" t="b">
         <v>0</v>
@@ -4776,10 +4797,10 @@
         <v>111</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -4809,7 +4830,7 @@
         <v>111</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>149</v>
@@ -4850,7 +4871,7 @@
         <v>111</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N35" s="31" t="s">
         <v>149</v>
@@ -4886,7 +4907,7 @@
         <v>111</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>149</v>
@@ -4922,7 +4943,7 @@
         <v>111</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>123</v>
@@ -4965,7 +4986,7 @@
         <v>110</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N38" s="31" t="s">
         <v>137</v>
@@ -5008,7 +5029,7 @@
         <v>110</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N39" s="31" t="s">
         <v>137</v>
@@ -5051,7 +5072,7 @@
         <v>110</v>
       </c>
       <c r="M40" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N40" s="31" t="s">
         <v>136</v>
@@ -5094,7 +5115,7 @@
         <v>110</v>
       </c>
       <c r="M41" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N41" s="31" t="s">
         <v>136</v>
@@ -5137,7 +5158,7 @@
         <v>110</v>
       </c>
       <c r="M42" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N42" s="31" t="s">
         <v>135</v>
@@ -5180,7 +5201,7 @@
         <v>110</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N43" s="31" t="s">
         <v>135</v>
@@ -5223,7 +5244,7 @@
         <v>111</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N44" s="16" t="s">
         <v>123</v>
@@ -5231,7 +5252,7 @@
     </row>
     <row r="45" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>56</v>
@@ -5266,7 +5287,7 @@
         <v>111</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N45" s="16" t="s">
         <v>123</v>
@@ -5309,7 +5330,7 @@
         <v>111</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N46" s="16" t="s">
         <v>123</v>
@@ -5332,13 +5353,13 @@
         <v>344</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G47" s="42">
         <v>46025</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I47" s="31" t="b">
         <v>0</v>
@@ -5349,10 +5370,10 @@
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="27" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M47" s="27" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N47" s="31" t="s">
         <v>121</v>
@@ -5375,13 +5396,13 @@
         <v>344</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G48" s="42">
         <v>46025</v>
       </c>
       <c r="H48" s="31" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I48" s="31" t="b">
         <v>0</v>
@@ -5392,10 +5413,10 @@
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="27" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M48" s="27" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N48" s="31" t="s">
         <v>122</v>
@@ -5431,7 +5452,7 @@
         <v>111</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>123</v>
@@ -5467,7 +5488,7 @@
         <v>111</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>123</v>
@@ -5507,7 +5528,7 @@
         <v>111</v>
       </c>
       <c r="M51" s="27" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N51" s="31" t="s">
         <v>124</v>
@@ -5543,7 +5564,7 @@
         <v>111</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>125</v>
@@ -5579,7 +5600,7 @@
         <v>111</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>126</v>
@@ -5618,7 +5639,7 @@
         <v>111</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N54" s="5" t="s">
         <v>470</v>
@@ -5641,7 +5662,7 @@
         <v>345</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I55" s="5" t="b">
         <v>0</v>
@@ -5657,10 +5678,10 @@
         <v>111</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -5693,7 +5714,7 @@
         <v>111</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>127</v>
@@ -5729,7 +5750,7 @@
         <v>111</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N57" s="7" t="s">
         <v>128</v>
@@ -5765,7 +5786,7 @@
         <v>111</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>129</v>
@@ -5801,7 +5822,7 @@
         <v>111</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N59" s="7" t="s">
         <v>130</v>
@@ -5837,7 +5858,7 @@
         <v>111</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N60" s="7" t="s">
         <v>131</v>
@@ -5870,7 +5891,7 @@
         <v>111</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N61" s="7" t="s">
         <v>123</v>
@@ -5878,7 +5899,7 @@
     </row>
     <row r="62" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>56</v>
@@ -5903,7 +5924,7 @@
         <v>111</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N62" s="7" t="s">
         <v>123</v>
@@ -5939,7 +5960,7 @@
         <v>111</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N63" s="7" t="s">
         <v>123</v>
@@ -5982,7 +6003,7 @@
         <v>111</v>
       </c>
       <c r="M64" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N64" s="34" t="s">
         <v>123</v>
@@ -6021,7 +6042,7 @@
         <v>111</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N65" s="7" t="s">
         <v>123</v>
@@ -6064,7 +6085,7 @@
         <v>111</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N66" s="16" t="s">
         <v>123</v>
@@ -6072,7 +6093,7 @@
     </row>
     <row r="67" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>56</v>
@@ -6107,7 +6128,7 @@
         <v>111</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N67" s="16" t="s">
         <v>123</v>
@@ -6150,7 +6171,7 @@
         <v>111</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N68" s="16" t="s">
         <v>123</v>
@@ -6186,7 +6207,7 @@
         <v>111</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N69" s="7" t="s">
         <v>132</v>
@@ -6222,7 +6243,7 @@
         <v>111</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N70" s="7" t="s">
         <v>133</v>
@@ -6258,7 +6279,7 @@
         <v>111</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N71" s="7" t="s">
         <v>134</v>
@@ -6281,13 +6302,13 @@
         <v>344</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G72" s="45">
         <v>46112</v>
       </c>
       <c r="H72" s="31" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I72" s="31" t="b">
         <v>0</v>
@@ -6303,7 +6324,7 @@
         <v>111</v>
       </c>
       <c r="M72" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N72" s="31" t="s">
         <v>123</v>
@@ -6311,7 +6332,7 @@
     </row>
     <row r="73" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="31" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>56</v>
@@ -6326,13 +6347,13 @@
         <v>344</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G73" s="45">
         <v>46112</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I73" s="31" t="b">
         <v>0</v>
@@ -6348,7 +6369,7 @@
         <v>111</v>
       </c>
       <c r="M73" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N73" s="31" t="s">
         <v>123</v>
@@ -6371,13 +6392,13 @@
         <v>344</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G74" s="45">
         <v>46112</v>
       </c>
       <c r="H74" s="31" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I74" s="31" t="b">
         <v>0</v>
@@ -6391,7 +6412,7 @@
         <v>111</v>
       </c>
       <c r="M74" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N74" s="31" t="s">
         <v>230</v>
@@ -6399,7 +6420,7 @@
     </row>
     <row r="75" spans="1:14" s="31" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B75" s="27" t="s">
         <v>56</v>
@@ -6414,13 +6435,13 @@
         <v>344</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G75" s="45">
         <v>46112</v>
       </c>
       <c r="H75" s="31" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I75" s="31" t="b">
         <v>0</v>
@@ -6434,7 +6455,7 @@
         <v>111</v>
       </c>
       <c r="M75" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N75" s="31" t="s">
         <v>230</v>
@@ -6457,13 +6478,13 @@
         <v>471</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G76" s="44">
         <v>45292</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I76" s="13" t="b">
         <v>0</v>
@@ -6477,7 +6498,7 @@
         <v>111</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N76" s="16" t="s">
         <v>144</v>
@@ -6500,13 +6521,13 @@
         <v>471</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G77" s="44">
         <v>45292</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I77" s="13" t="b">
         <v>0</v>
@@ -6520,7 +6541,7 @@
         <v>111</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N77" s="16" t="s">
         <v>143</v>
@@ -6563,7 +6584,7 @@
         <v>111</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N78" s="16" t="s">
         <v>123</v>
@@ -6571,7 +6592,7 @@
     </row>
     <row r="79" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>56</v>
@@ -6606,7 +6627,7 @@
         <v>111</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N79" s="16" t="s">
         <v>123</v>
@@ -6649,7 +6670,7 @@
         <v>111</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N80" s="16" t="s">
         <v>123</v>
@@ -6672,13 +6693,13 @@
         <v>344</v>
       </c>
       <c r="F81" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G81" s="45">
         <v>46235</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I81" s="31" t="b">
         <v>0</v>
@@ -6692,7 +6713,7 @@
         <v>111</v>
       </c>
       <c r="M81" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N81" s="31" t="s">
         <v>123</v>
@@ -6700,7 +6721,7 @@
     </row>
     <row r="82" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="31" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B82" s="27" t="s">
         <v>56</v>
@@ -6715,13 +6736,13 @@
         <v>344</v>
       </c>
       <c r="F82" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G82" s="45">
         <v>46235</v>
       </c>
       <c r="H82" s="31" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I82" s="31" t="b">
         <v>0</v>
@@ -6735,7 +6756,7 @@
         <v>111</v>
       </c>
       <c r="M82" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N82" s="31" t="s">
         <v>123</v>
@@ -6778,7 +6799,7 @@
         <v>111</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N83" s="16" t="s">
         <v>123</v>
@@ -6801,13 +6822,13 @@
         <v>344</v>
       </c>
       <c r="F84" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G84" s="45">
         <v>46235</v>
       </c>
       <c r="H84" s="31" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I84" s="31" t="b">
         <v>0</v>
@@ -6821,7 +6842,7 @@
         <v>111</v>
       </c>
       <c r="M84" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N84" s="31" t="s">
         <v>123</v>
@@ -6864,7 +6885,7 @@
         <v>111</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N85" s="16" t="s">
         <v>123</v>
@@ -6872,7 +6893,7 @@
     </row>
     <row r="86" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>56</v>
@@ -6907,7 +6928,7 @@
         <v>111</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N86" s="16" t="s">
         <v>123</v>
@@ -6950,7 +6971,7 @@
         <v>111</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N87" s="16" t="s">
         <v>123</v>
@@ -6986,7 +7007,7 @@
         <v>111</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N88" s="7" t="s">
         <v>123</v>
@@ -7027,7 +7048,7 @@
         <v>111</v>
       </c>
       <c r="M89" s="27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N89" s="31" t="s">
         <v>177</v>
@@ -7068,7 +7089,7 @@
         <v>111</v>
       </c>
       <c r="M90" s="27" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N90" s="31" t="s">
         <v>177</v>
@@ -7109,7 +7130,7 @@
         <v>111</v>
       </c>
       <c r="M91" s="27" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N91" s="31" t="s">
         <v>177</v>
@@ -7150,7 +7171,7 @@
         <v>111</v>
       </c>
       <c r="M92" s="27" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N92" s="31" t="s">
         <v>177</v>
@@ -7186,7 +7207,7 @@
         <v>111</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>189</v>
@@ -7194,7 +7215,7 @@
     </row>
     <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>56</v>
@@ -7222,7 +7243,7 @@
         <v>111</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>189</v>
@@ -7258,7 +7279,7 @@
         <v>111</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>189</v>
@@ -7281,13 +7302,13 @@
         <v>344</v>
       </c>
       <c r="F96" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G96" s="42">
         <v>46235</v>
       </c>
       <c r="H96" s="31" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I96" s="31" t="b">
         <v>0</v>
@@ -7301,7 +7322,7 @@
         <v>111</v>
       </c>
       <c r="M96" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N96" s="34" t="s">
         <v>123</v>
@@ -7309,7 +7330,7 @@
     </row>
     <row r="97" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="31" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B97" s="27" t="s">
         <v>56</v>
@@ -7324,13 +7345,13 @@
         <v>344</v>
       </c>
       <c r="F97" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G97" s="42">
         <v>46235</v>
       </c>
       <c r="H97" s="31" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I97" s="31" t="b">
         <v>0</v>
@@ -7344,7 +7365,7 @@
         <v>111</v>
       </c>
       <c r="M97" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N97" s="34" t="s">
         <v>123</v>
@@ -7387,7 +7408,7 @@
         <v>111</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N98" s="16" t="s">
         <v>123</v>
@@ -7410,13 +7431,13 @@
         <v>344</v>
       </c>
       <c r="F99" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G99" s="42">
         <v>46235</v>
       </c>
       <c r="H99" s="31" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I99" s="31" t="b">
         <v>0</v>
@@ -7430,7 +7451,7 @@
         <v>111</v>
       </c>
       <c r="M99" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N99" s="34" t="s">
         <v>123</v>
@@ -7466,7 +7487,7 @@
         <v>111</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N100" s="5" t="s">
         <v>231</v>
@@ -7502,7 +7523,7 @@
         <v>111</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N101" s="7" t="s">
         <v>128</v>
@@ -7538,7 +7559,7 @@
         <v>111</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N102" s="10" t="s">
         <v>210</v>
@@ -7561,13 +7582,13 @@
         <v>471</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G103" s="44">
         <v>45473</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I103" s="13" t="b">
         <v>0</v>
@@ -7579,7 +7600,7 @@
       <c r="K103" s="21"/>
       <c r="L103" s="14"/>
       <c r="M103" s="14" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N103" s="16" t="s">
         <v>214</v>
@@ -7615,7 +7636,7 @@
         <v>111</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N104" s="5" t="s">
         <v>402</v>
@@ -7651,7 +7672,7 @@
         <v>111</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N105" s="5" t="s">
         <v>177</v>
@@ -7687,7 +7708,7 @@
         <v>111</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N106" s="5" t="s">
         <v>177</v>
@@ -7723,7 +7744,7 @@
         <v>111</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N107" s="5" t="s">
         <v>402</v>
@@ -7759,7 +7780,7 @@
         <v>342</v>
       </c>
       <c r="M108" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N108" s="5" t="s">
         <v>398</v>
@@ -7795,7 +7816,7 @@
         <v>342</v>
       </c>
       <c r="M109" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N109" s="5" t="s">
         <v>400</v>
@@ -7831,7 +7852,7 @@
         <v>342</v>
       </c>
       <c r="M110" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N110" s="5" t="s">
         <v>400</v>
@@ -7867,7 +7888,7 @@
         <v>342</v>
       </c>
       <c r="M111" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N111" s="5" t="s">
         <v>398</v>
@@ -7903,7 +7924,7 @@
         <v>342</v>
       </c>
       <c r="M112" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N112" s="5" t="s">
         <v>401</v>
@@ -7939,7 +7960,7 @@
         <v>342</v>
       </c>
       <c r="M113" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N113" s="5" t="s">
         <v>398</v>
@@ -7975,7 +7996,7 @@
         <v>342</v>
       </c>
       <c r="M114" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N114" s="5" t="s">
         <v>398</v>
@@ -8011,7 +8032,7 @@
         <v>342</v>
       </c>
       <c r="M115" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N115" s="5" t="s">
         <v>400</v>
@@ -8047,7 +8068,7 @@
         <v>342</v>
       </c>
       <c r="M116" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N116" s="5" t="s">
         <v>401</v>
@@ -8083,7 +8104,7 @@
         <v>342</v>
       </c>
       <c r="M117" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N117" s="5" t="s">
         <v>399</v>
@@ -8119,7 +8140,7 @@
         <v>342</v>
       </c>
       <c r="M118" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N118" s="5" t="s">
         <v>399</v>
@@ -8155,7 +8176,7 @@
         <v>342</v>
       </c>
       <c r="M119" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N119" s="5" t="s">
         <v>399</v>
@@ -8191,7 +8212,7 @@
         <v>342</v>
       </c>
       <c r="M120" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N120" s="5" t="s">
         <v>399</v>
@@ -8227,7 +8248,7 @@
         <v>342</v>
       </c>
       <c r="M121" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N121" s="5" t="s">
         <v>399</v>
@@ -8263,7 +8284,7 @@
         <v>342</v>
       </c>
       <c r="M122" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N122" s="5" t="s">
         <v>399</v>
@@ -8299,7 +8320,7 @@
         <v>342</v>
       </c>
       <c r="M123" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N123" s="5" t="s">
         <v>279</v>
@@ -8335,7 +8356,7 @@
         <v>342</v>
       </c>
       <c r="M124" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N124" s="5" t="s">
         <v>280</v>
@@ -8371,7 +8392,7 @@
         <v>342</v>
       </c>
       <c r="M125" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N125" s="5" t="s">
         <v>280</v>
@@ -8407,7 +8428,7 @@
         <v>342</v>
       </c>
       <c r="M126" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N126" s="5" t="s">
         <v>280</v>
@@ -8443,7 +8464,7 @@
         <v>342</v>
       </c>
       <c r="M127" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N127" s="5" t="s">
         <v>281</v>
@@ -8479,7 +8500,7 @@
         <v>342</v>
       </c>
       <c r="M128" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N128" s="5" t="s">
         <v>281</v>
@@ -8515,7 +8536,7 @@
         <v>342</v>
       </c>
       <c r="M129" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N129" s="5" t="s">
         <v>281</v>
@@ -8553,7 +8574,7 @@
         <v>110</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N130" s="5" t="s">
         <v>285</v>
@@ -8591,7 +8612,7 @@
         <v>110</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N131" s="5" t="s">
         <v>285</v>
@@ -8629,7 +8650,7 @@
         <v>110</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N132" s="5" t="s">
         <v>286</v>
@@ -8667,7 +8688,7 @@
         <v>110</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N133" s="5" t="s">
         <v>286</v>
@@ -8702,7 +8723,7 @@
         <v>111</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="N134" s="5" t="s">
         <v>141</v>
@@ -8737,7 +8758,7 @@
         <v>111</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N135" s="5" t="s">
         <v>141</v>
@@ -8772,7 +8793,7 @@
         <v>111</v>
       </c>
       <c r="M136" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N136" s="5" t="s">
         <v>149</v>
@@ -8807,7 +8828,7 @@
         <v>111</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N137" s="5" t="s">
         <v>149</v>
@@ -8842,7 +8863,7 @@
         <v>111</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N138" s="5" t="s">
         <v>150</v>
@@ -8877,7 +8898,7 @@
         <v>111</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N139" s="5" t="s">
         <v>316</v>
@@ -8912,7 +8933,7 @@
         <v>111</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="N140" s="5" t="s">
         <v>317</v>
@@ -8947,7 +8968,7 @@
         <v>111</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N141" s="5" t="s">
         <v>317</v>
@@ -8982,7 +9003,7 @@
         <v>111</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N142" s="5" t="s">
         <v>318</v>
@@ -9017,7 +9038,7 @@
         <v>111</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N143" s="5" t="s">
         <v>319</v>
@@ -9052,7 +9073,7 @@
         <v>111</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N144" s="5" t="s">
         <v>320</v>
@@ -9087,7 +9108,7 @@
         <v>111</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N145" s="5" t="s">
         <v>321</v>
@@ -9122,7 +9143,7 @@
         <v>111</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N146" s="5" t="s">
         <v>322</v>
@@ -9157,7 +9178,7 @@
         <v>111</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N147" s="5" t="s">
         <v>322</v>
@@ -9180,13 +9201,13 @@
         <v>344</v>
       </c>
       <c r="F148" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G148" s="42">
         <v>46235</v>
       </c>
       <c r="H148" s="31" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I148" s="31" t="b">
         <v>0</v>
@@ -9199,7 +9220,7 @@
         <v>111</v>
       </c>
       <c r="M148" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N148" s="34" t="s">
         <v>123</v>
@@ -9207,7 +9228,7 @@
     </row>
     <row r="149" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="31" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B149" s="27" t="s">
         <v>56</v>
@@ -9222,13 +9243,13 @@
         <v>344</v>
       </c>
       <c r="F149" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G149" s="42">
         <v>46235</v>
       </c>
       <c r="H149" s="31" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I149" s="31" t="b">
         <v>0</v>
@@ -9241,7 +9262,7 @@
         <v>111</v>
       </c>
       <c r="M149" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N149" s="34" t="s">
         <v>123</v>
@@ -9264,13 +9285,13 @@
         <v>344</v>
       </c>
       <c r="F150" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G150" s="42">
         <v>46235</v>
       </c>
       <c r="H150" s="31" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I150" s="31" t="b">
         <v>0</v>
@@ -9283,7 +9304,7 @@
         <v>111</v>
       </c>
       <c r="M150" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N150" s="34" t="s">
         <v>123</v>
@@ -9306,13 +9327,13 @@
         <v>344</v>
       </c>
       <c r="F151" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G151" s="42">
         <v>46235</v>
       </c>
       <c r="H151" s="31" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I151" s="31" t="b">
         <v>0</v>
@@ -9325,7 +9346,7 @@
         <v>111</v>
       </c>
       <c r="M151" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N151" s="34" t="s">
         <v>123</v>
@@ -9333,7 +9354,7 @@
     </row>
     <row r="152" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="31" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B152" s="27" t="s">
         <v>56</v>
@@ -9348,13 +9369,13 @@
         <v>344</v>
       </c>
       <c r="F152" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G152" s="42">
         <v>46235</v>
       </c>
       <c r="H152" s="31" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I152" s="31" t="b">
         <v>0</v>
@@ -9367,7 +9388,7 @@
         <v>111</v>
       </c>
       <c r="M152" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N152" s="34" t="s">
         <v>123</v>
@@ -9390,13 +9411,13 @@
         <v>344</v>
       </c>
       <c r="F153" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G153" s="42">
         <v>46235</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I153" s="31" t="b">
         <v>0</v>
@@ -9409,7 +9430,7 @@
         <v>111</v>
       </c>
       <c r="M153" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N153" s="34" t="s">
         <v>123</v>
@@ -9444,7 +9465,7 @@
         <v>111</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N154" s="5" t="s">
         <v>349</v>
@@ -9479,7 +9500,7 @@
         <v>111</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N155" s="5" t="s">
         <v>348</v>
@@ -9514,7 +9535,7 @@
         <v>111</v>
       </c>
       <c r="M156" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N156" s="5" t="s">
         <v>350</v>
@@ -9552,7 +9573,7 @@
         <v>110</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N157" s="5" t="s">
         <v>384</v>
@@ -9590,7 +9611,7 @@
         <v>110</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N158" s="5" t="s">
         <v>384</v>
@@ -9628,7 +9649,7 @@
         <v>110</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N159" s="5" t="s">
         <v>385</v>
@@ -9666,7 +9687,7 @@
         <v>110</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N160" s="5" t="s">
         <v>385</v>
@@ -9704,7 +9725,7 @@
         <v>110</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N161" s="5" t="s">
         <v>386</v>
@@ -9742,7 +9763,7 @@
         <v>110</v>
       </c>
       <c r="M162" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N162" s="5" t="s">
         <v>386</v>
@@ -9756,7 +9777,7 @@
         <v>56</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D163" s="24" t="s">
         <v>277</v>
@@ -9780,7 +9801,7 @@
         <v>110</v>
       </c>
       <c r="M163" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N163" s="5" t="s">
         <v>387</v>
@@ -9794,7 +9815,7 @@
         <v>56</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D164" s="24" t="s">
         <v>277</v>
@@ -9818,7 +9839,7 @@
         <v>110</v>
       </c>
       <c r="M164" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N164" s="5" t="s">
         <v>387</v>
@@ -9832,7 +9853,7 @@
         <v>56</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D165" s="24" t="s">
         <v>277</v>
@@ -9856,7 +9877,7 @@
         <v>110</v>
       </c>
       <c r="M165" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N165" s="5" t="s">
         <v>388</v>
@@ -9894,7 +9915,7 @@
         <v>110</v>
       </c>
       <c r="M166" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N166" s="5" t="s">
         <v>388</v>
@@ -9908,7 +9929,7 @@
         <v>56</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D167" s="24" t="s">
         <v>277</v>
@@ -9932,7 +9953,7 @@
         <v>110</v>
       </c>
       <c r="M167" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N167" s="5" t="s">
         <v>389</v>
@@ -9970,7 +9991,7 @@
         <v>110</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N168" s="5" t="s">
         <v>389</v>
@@ -10008,7 +10029,7 @@
         <v>110</v>
       </c>
       <c r="M169" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N169" s="5" t="s">
         <v>390</v>
@@ -10046,7 +10067,7 @@
         <v>110</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N170" s="5" t="s">
         <v>390</v>
@@ -10060,7 +10081,7 @@
         <v>56</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D171" s="24" t="s">
         <v>277</v>
@@ -10084,7 +10105,7 @@
         <v>110</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N171" s="5" t="s">
         <v>391</v>
@@ -10122,7 +10143,7 @@
         <v>110</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N172" s="5" t="s">
         <v>391</v>
@@ -10164,7 +10185,7 @@
         <v>110</v>
       </c>
       <c r="M173" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N173" s="31" t="s">
         <v>392</v>
@@ -10202,7 +10223,7 @@
         <v>110</v>
       </c>
       <c r="M174" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N174" s="5" t="s">
         <v>392</v>
@@ -10225,11 +10246,11 @@
         <v>344</v>
       </c>
       <c r="F175" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G175" s="42"/>
       <c r="H175" s="31" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I175" s="31" t="b">
         <v>0</v>
@@ -10242,7 +10263,7 @@
         <v>111</v>
       </c>
       <c r="M175" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N175" s="34" t="s">
         <v>123</v>
@@ -10250,7 +10271,7 @@
     </row>
     <row r="176" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="31" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B176" s="27" t="s">
         <v>56</v>
@@ -10265,11 +10286,11 @@
         <v>344</v>
       </c>
       <c r="F176" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G176" s="42"/>
       <c r="H176" s="31" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I176" s="31" t="b">
         <v>0</v>
@@ -10282,7 +10303,7 @@
         <v>111</v>
       </c>
       <c r="M176" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N176" s="34" t="s">
         <v>123</v>
@@ -10305,11 +10326,11 @@
         <v>344</v>
       </c>
       <c r="F177" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G177" s="42"/>
       <c r="H177" s="31" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I177" s="31" t="b">
         <v>0</v>
@@ -10322,7 +10343,7 @@
         <v>111</v>
       </c>
       <c r="M177" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N177" s="34" t="s">
         <v>123</v>
@@ -10345,11 +10366,11 @@
         <v>344</v>
       </c>
       <c r="F178" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G178" s="42"/>
       <c r="H178" s="31" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I178" s="31" t="b">
         <v>0</v>
@@ -10362,7 +10383,7 @@
         <v>111</v>
       </c>
       <c r="M178" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N178" s="34" t="s">
         <v>123</v>
@@ -10370,7 +10391,7 @@
     </row>
     <row r="179" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="31" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B179" s="27" t="s">
         <v>56</v>
@@ -10385,13 +10406,13 @@
         <v>344</v>
       </c>
       <c r="F179" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G179" s="42">
         <v>46235</v>
       </c>
       <c r="H179" s="31" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I179" s="31" t="b">
         <v>0</v>
@@ -10404,7 +10425,7 @@
         <v>111</v>
       </c>
       <c r="M179" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N179" s="34" t="s">
         <v>123</v>
@@ -10427,11 +10448,11 @@
         <v>344</v>
       </c>
       <c r="F180" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G180" s="42"/>
       <c r="H180" s="31" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I180" s="31" t="b">
         <v>0</v>
@@ -10444,7 +10465,7 @@
         <v>111</v>
       </c>
       <c r="M180" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N180" s="34" t="s">
         <v>123</v>
@@ -10467,13 +10488,13 @@
         <v>471</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G181" s="44">
         <v>45689</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I181" s="13" t="b">
         <v>0</v>
@@ -10486,7 +10507,7 @@
         <v>416</v>
       </c>
       <c r="M181" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N181" s="16" t="s">
         <v>415</v>
@@ -10509,13 +10530,13 @@
         <v>471</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G182" s="44">
         <v>45689</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I182" s="13" t="b">
         <v>0</v>
@@ -10528,7 +10549,7 @@
         <v>416</v>
       </c>
       <c r="M182" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N182" s="16" t="s">
         <v>415</v>
@@ -10536,7 +10557,7 @@
     </row>
     <row r="183" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
@@ -10551,7 +10572,7 @@
         <v>345</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I183" s="5" t="b">
         <v>0</v>
@@ -10563,18 +10584,18 @@
         <v>1</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N183" s="37" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="184" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" s="31" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B184" s="27" t="s">
         <v>56</v>
@@ -10589,11 +10610,11 @@
         <v>344</v>
       </c>
       <c r="F184" s="33" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G184" s="42"/>
       <c r="H184" s="31" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I184" s="31" t="b">
         <v>0</v>
@@ -10605,10 +10626,10 @@
         <v>1</v>
       </c>
       <c r="L184" s="27" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M184" s="27" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N184" s="31" t="s">
         <v>422</v>
@@ -10616,7 +10637,7 @@
     </row>
     <row r="185" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>56</v>
@@ -10643,10 +10664,10 @@
         <v>1</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N185" s="12" t="s">
         <v>423</v>
@@ -10681,7 +10702,7 @@
         <v>111</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N186" s="5" t="s">
         <v>427</v>
@@ -10716,7 +10737,7 @@
         <v>111</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N187" s="5" t="s">
         <v>123</v>
@@ -10739,13 +10760,13 @@
         <v>471</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G188" s="44">
         <v>45565</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I188" s="13" t="b">
         <v>0</v>
@@ -10761,7 +10782,7 @@
         <v>111</v>
       </c>
       <c r="M188" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N188" s="16" t="s">
         <v>123</v>
@@ -10799,7 +10820,7 @@
         <v>111</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N189" s="5" t="s">
         <v>463</v>
@@ -10837,7 +10858,7 @@
         <v>111</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N190" s="5" t="s">
         <v>463</v>
@@ -10875,7 +10896,7 @@
         <v>111</v>
       </c>
       <c r="M191" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N191" s="5" t="s">
         <v>463</v>
@@ -10898,11 +10919,11 @@
         <v>344</v>
       </c>
       <c r="F192" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G192" s="42"/>
       <c r="H192" s="31" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I192" s="31" t="b">
         <v>0</v>
@@ -10915,7 +10936,7 @@
         <v>111</v>
       </c>
       <c r="M192" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N192" s="34" t="s">
         <v>123</v>
@@ -10923,7 +10944,7 @@
     </row>
     <row r="193" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="31" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B193" s="27" t="s">
         <v>56</v>
@@ -10938,11 +10959,11 @@
         <v>344</v>
       </c>
       <c r="F193" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G193" s="42"/>
       <c r="H193" s="31" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I193" s="31" t="b">
         <v>0</v>
@@ -10955,7 +10976,7 @@
         <v>111</v>
       </c>
       <c r="M193" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N193" s="34" t="s">
         <v>123</v>
@@ -10978,11 +10999,11 @@
         <v>344</v>
       </c>
       <c r="F194" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G194" s="42"/>
       <c r="H194" s="31" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I194" s="31" t="b">
         <v>0</v>
@@ -10995,7 +11016,7 @@
         <v>111</v>
       </c>
       <c r="M194" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N194" s="34" t="s">
         <v>123</v>
@@ -11018,11 +11039,11 @@
         <v>344</v>
       </c>
       <c r="F195" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G195" s="42"/>
       <c r="H195" s="31" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I195" s="31" t="b">
         <v>0</v>
@@ -11035,7 +11056,7 @@
         <v>111</v>
       </c>
       <c r="M195" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N195" s="34" t="s">
         <v>123</v>
@@ -11043,7 +11064,7 @@
     </row>
     <row r="196" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B196" s="27" t="s">
         <v>56</v>
@@ -11058,13 +11079,13 @@
         <v>344</v>
       </c>
       <c r="F196" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G196" s="42">
         <v>46235</v>
       </c>
       <c r="H196" s="31" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I196" s="31" t="b">
         <v>0</v>
@@ -11077,7 +11098,7 @@
         <v>111</v>
       </c>
       <c r="M196" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N196" s="34" t="s">
         <v>123</v>
@@ -11100,11 +11121,11 @@
         <v>344</v>
       </c>
       <c r="F197" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G197" s="42"/>
       <c r="H197" s="31" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I197" s="31" t="b">
         <v>0</v>
@@ -11117,7 +11138,7 @@
         <v>111</v>
       </c>
       <c r="M197" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N197" s="34" t="s">
         <v>123</v>
@@ -11140,13 +11161,13 @@
         <v>471</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G198" s="44">
         <v>45565</v>
       </c>
       <c r="H198" s="13" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I198" s="13" t="b">
         <v>0</v>
@@ -11162,7 +11183,7 @@
         <v>111</v>
       </c>
       <c r="M198" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N198" s="16" t="s">
         <v>494</v>
@@ -11201,7 +11222,7 @@
         <v>110</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N199" s="5" t="s">
         <v>504</v>
@@ -11240,7 +11261,7 @@
         <v>110</v>
       </c>
       <c r="M200" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N200" s="5" t="s">
         <v>504</v>
@@ -11279,7 +11300,7 @@
         <v>110</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N201" s="5" t="s">
         <v>504</v>
@@ -11318,7 +11339,7 @@
         <v>110</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N202" s="5" t="s">
         <v>504</v>
@@ -11356,7 +11377,7 @@
         <v>110</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N203" s="5" t="s">
         <v>509</v>
@@ -11394,7 +11415,7 @@
         <v>110</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N204" s="5" t="s">
         <v>509</v>
@@ -11432,7 +11453,7 @@
         <v>110</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N205" s="5" t="s">
         <v>514</v>
@@ -11470,7 +11491,7 @@
         <v>110</v>
       </c>
       <c r="M206" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N206" s="5" t="s">
         <v>514</v>
@@ -11508,7 +11529,7 @@
         <v>110</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N207" s="5" t="s">
         <v>519</v>
@@ -11546,7 +11567,7 @@
         <v>110</v>
       </c>
       <c r="M208" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N208" s="5" t="s">
         <v>519</v>
@@ -11584,7 +11605,7 @@
         <v>110</v>
       </c>
       <c r="M209" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N209" s="5" t="s">
         <v>524</v>
@@ -11622,7 +11643,7 @@
         <v>110</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N210" s="5" t="s">
         <v>524</v>
@@ -11660,7 +11681,7 @@
         <v>110</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N211" s="5" t="s">
         <v>532</v>
@@ -11698,7 +11719,7 @@
         <v>110</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N212" s="5" t="s">
         <v>537</v>
@@ -11736,7 +11757,7 @@
         <v>110</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N213" s="5" t="s">
         <v>537</v>
@@ -11744,28 +11765,28 @@
     </row>
     <row r="214" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="31" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B214" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C214" s="31" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D214" s="28" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E214" s="29" t="s">
         <v>344</v>
       </c>
       <c r="F214" s="35" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G214" s="42">
         <v>46025</v>
       </c>
       <c r="H214" s="31" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I214" s="31" t="b">
         <v>0</v>
@@ -11777,10 +11798,10 @@
         <v>1</v>
       </c>
       <c r="L214" s="27" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M214" s="27" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N214" s="46" t="s">
         <v>540</v>
@@ -11788,28 +11809,28 @@
     </row>
     <row r="215" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B215" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C215" s="31" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E215" s="29" t="s">
         <v>344</v>
       </c>
       <c r="F215" s="35" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G215" s="42">
         <v>46025</v>
       </c>
       <c r="H215" s="31" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I215" s="31" t="b">
         <v>0</v>
@@ -11821,10 +11842,10 @@
         <v>1</v>
       </c>
       <c r="L215" s="27" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M215" s="27" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N215" s="46" t="s">
         <v>541</v>
@@ -11832,22 +11853,22 @@
     </row>
     <row r="216" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E216" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I216" s="5" t="b">
         <v>0</v>
@@ -11859,10 +11880,10 @@
         <v>1</v>
       </c>
       <c r="L216" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N216" s="36" t="s">
         <v>542</v>
@@ -11870,22 +11891,22 @@
     </row>
     <row r="217" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E217" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>546</v>
+        <v>879</v>
       </c>
       <c r="I217" s="5" t="b">
         <v>0</v>
@@ -11897,33 +11918,33 @@
         <v>1</v>
       </c>
       <c r="L217" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="N217" s="36" t="s">
-        <v>543</v>
+        <v>828</v>
+      </c>
+      <c r="N217" s="50" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="218" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E218" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>546</v>
+        <v>879</v>
       </c>
       <c r="I218" s="5" t="b">
         <v>0</v>
@@ -11935,33 +11956,33 @@
         <v>1</v>
       </c>
       <c r="L218" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="N218" s="36" t="s">
-        <v>544</v>
+        <v>828</v>
+      </c>
+      <c r="N218" s="50" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="219" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E219" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I219" s="5" t="b">
         <v>0</v>
@@ -11973,68 +11994,68 @@
         <v>1</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N219" s="36" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="220" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D220" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E220" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H220" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C220" s="1" t="s">
+      <c r="I220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="M220" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="N220" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="D220" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="E220" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H220" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="I220" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="M220" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="N220" s="5" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="221" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D221" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E221" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H221" s="5" t="s">
         <v>559</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="D221" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="E221" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H221" s="5" t="s">
-        <v>561</v>
       </c>
       <c r="I221" s="5" t="b">
         <v>0</v>
@@ -12046,30 +12067,30 @@
         <v>416</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N221" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="222" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E222" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I222" s="5" t="b">
         <v>0</v>
@@ -12081,30 +12102,30 @@
         <v>416</v>
       </c>
       <c r="M222" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N222" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="223" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B223" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D223" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E223" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H223" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="D223" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="E223" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H223" s="5" t="s">
-        <v>568</v>
       </c>
       <c r="I223" s="5" t="b">
         <v>1</v>
@@ -12119,30 +12140,30 @@
         <v>111</v>
       </c>
       <c r="M223" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N223" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B224" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D224" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E224" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H224" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="D224" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="E224" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H224" s="5" t="s">
-        <v>568</v>
       </c>
       <c r="I224" s="5" t="b">
         <v>1</v>
@@ -12157,36 +12178,36 @@
         <v>111</v>
       </c>
       <c r="M224" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N224" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="225" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" s="38" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B225" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E225" s="21" t="s">
         <v>471</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G225" s="44">
         <v>45565</v>
       </c>
       <c r="H225" s="13" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I225" s="13" t="b">
         <v>0</v>
@@ -12201,30 +12222,30 @@
         <v>111</v>
       </c>
       <c r="M225" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N225" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="226" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B226" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D226" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E226" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H226" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="D226" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="E226" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H226" s="5" t="s">
-        <v>568</v>
       </c>
       <c r="I226" s="5" t="b">
         <v>0</v>
@@ -12239,10 +12260,10 @@
         <v>111</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N226" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -12250,19 +12271,19 @@
         <v>491</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>492</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E227" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I227" s="5" t="b">
         <v>0</v>
@@ -12277,7 +12298,7 @@
         <v>111</v>
       </c>
       <c r="M227" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N227" s="5" t="s">
         <v>494</v>
@@ -12285,28 +12306,28 @@
     </row>
     <row r="228" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="38" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B228" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E228" s="21" t="s">
         <v>471</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G228" s="44">
         <v>45565</v>
       </c>
       <c r="H228" s="13" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I228" s="13" t="b">
         <v>0</v>
@@ -12321,30 +12342,30 @@
         <v>111</v>
       </c>
       <c r="M228" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N228" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B229" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D229" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E229" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H229" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="D229" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="E229" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H229" s="5" t="s">
-        <v>568</v>
       </c>
       <c r="I229" s="5" t="b">
         <v>0</v>
@@ -12359,36 +12380,36 @@
         <v>111</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N229" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="230" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B230" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E230" s="21" t="s">
         <v>471</v>
       </c>
       <c r="F230" s="39" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G230" s="44">
         <v>45717</v>
       </c>
       <c r="H230" s="13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I230" s="13" t="b">
         <v>0</v>
@@ -12403,36 +12424,36 @@
         <v>111</v>
       </c>
       <c r="M230" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N230" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="231" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B231" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E231" s="21" t="s">
         <v>471</v>
       </c>
       <c r="F231" s="39" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G231" s="44">
         <v>45717</v>
       </c>
       <c r="H231" s="13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I231" s="13" t="b">
         <v>0</v>
@@ -12447,36 +12468,36 @@
         <v>111</v>
       </c>
       <c r="M231" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N231" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B232" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E232" s="21" t="s">
         <v>471</v>
       </c>
       <c r="F232" s="39" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G232" s="44">
         <v>45717</v>
       </c>
       <c r="H232" s="13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I232" s="13" t="b">
         <v>0</v>
@@ -12491,7 +12512,7 @@
         <v>111</v>
       </c>
       <c r="M232" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N232" s="13" t="s">
         <v>494</v>
@@ -12499,28 +12520,28 @@
     </row>
     <row r="233" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B233" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E233" s="21" t="s">
         <v>471</v>
       </c>
       <c r="F233" s="39" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G233" s="44">
         <v>45717</v>
       </c>
       <c r="H233" s="13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I233" s="13" t="b">
         <v>0</v>
@@ -12535,7 +12556,7 @@
         <v>111</v>
       </c>
       <c r="M233" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N233" s="13" t="s">
         <v>494</v>
@@ -12543,22 +12564,22 @@
     </row>
     <row r="234" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D234" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E234" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I234" s="5" t="b">
         <v>0</v>
@@ -12573,30 +12594,30 @@
         <v>111</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N234" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="235" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D235" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E235" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I235" s="5" t="b">
         <v>0</v>
@@ -12611,30 +12632,30 @@
         <v>111</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N235" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="236" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E236" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I236" s="5" t="b">
         <v>0</v>
@@ -12649,7 +12670,7 @@
         <v>111</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N236" s="5" t="s">
         <v>494</v>
@@ -12657,22 +12678,22 @@
     </row>
     <row r="237" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D237" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E237" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H237" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="D237" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="E237" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H237" s="5" t="s">
-        <v>584</v>
       </c>
       <c r="I237" s="5" t="b">
         <v>0</v>
@@ -12687,7 +12708,7 @@
         <v>111</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N237" s="5" t="s">
         <v>494</v>
@@ -12695,22 +12716,22 @@
     </row>
     <row r="238" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D238" s="24" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E238" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I238" s="5" t="b">
         <v>0</v>
@@ -12722,7 +12743,7 @@
         <v>111</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N238" s="7" t="s">
         <v>123</v>
@@ -12730,22 +12751,22 @@
     </row>
     <row r="239" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D239" s="24" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E239" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I239" s="5" t="b">
         <v>0</v>
@@ -12757,7 +12778,7 @@
         <v>111</v>
       </c>
       <c r="M239" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N239" s="7" t="s">
         <v>123</v>
@@ -12765,22 +12786,22 @@
     </row>
     <row r="240" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D240" s="24" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E240" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I240" s="5" t="b">
         <v>0</v>
@@ -12792,7 +12813,7 @@
         <v>111</v>
       </c>
       <c r="M240" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N240" s="7" t="s">
         <v>123</v>
@@ -12800,22 +12821,22 @@
     </row>
     <row r="241" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E241" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I241" s="5" t="b">
         <v>0</v>
@@ -12827,7 +12848,7 @@
         <v>111</v>
       </c>
       <c r="M241" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N241" s="7" t="s">
         <v>123</v>
@@ -12835,28 +12856,28 @@
     </row>
     <row r="242" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A242" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B242" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C242" s="31" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D242" s="32" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E242" s="29" t="s">
         <v>344</v>
       </c>
       <c r="F242" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G242" s="42">
         <v>46235</v>
       </c>
       <c r="H242" s="31" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I242" s="31" t="b">
         <v>0</v>
@@ -12869,7 +12890,7 @@
         <v>111</v>
       </c>
       <c r="M242" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N242" s="34" t="s">
         <v>123</v>
@@ -12877,23 +12898,23 @@
     </row>
     <row r="243" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="D243" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="E243" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H243" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B243" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="D243" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="E243" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H243" s="5" t="s">
-        <v>592</v>
-      </c>
       <c r="I243" s="5" t="b">
         <v>0</v>
       </c>
@@ -12904,7 +12925,7 @@
         <v>111</v>
       </c>
       <c r="M243" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N243" s="7" t="s">
         <v>123</v>
@@ -12912,22 +12933,22 @@
     </row>
     <row r="244" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D244" s="24" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E244" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I244" s="5" t="b">
         <v>0</v>
@@ -12942,30 +12963,30 @@
         <v>111</v>
       </c>
       <c r="M244" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N244" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="245" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D245" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="E245" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H245" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D245" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="E245" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H245" s="5" t="s">
-        <v>601</v>
       </c>
       <c r="I245" s="5" t="b">
         <v>0</v>
@@ -12980,30 +13001,30 @@
         <v>111</v>
       </c>
       <c r="M245" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N245" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="246" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E246" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I246" s="5" t="b">
         <v>0</v>
@@ -13018,30 +13039,30 @@
         <v>111</v>
       </c>
       <c r="M246" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N246" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="247" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E247" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I247" s="5" t="b">
         <v>0</v>
@@ -13056,30 +13077,30 @@
         <v>111</v>
       </c>
       <c r="M247" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N247" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="248" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D248" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E248" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H248" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="D248" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="E248" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H248" s="5" t="s">
-        <v>619</v>
       </c>
       <c r="I248" s="5" t="b">
         <v>0</v>
@@ -13094,7 +13115,7 @@
         <v>111</v>
       </c>
       <c r="M248" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N248" s="5" t="s">
         <v>494</v>
@@ -13102,22 +13123,22 @@
     </row>
     <row r="249" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D249" s="24" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E249" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I249" s="5" t="b">
         <v>0</v>
@@ -13132,7 +13153,7 @@
         <v>111</v>
       </c>
       <c r="M249" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N249" s="5" t="s">
         <v>494</v>
@@ -13140,16 +13161,16 @@
     </row>
     <row r="250" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B250" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E250" s="21" t="s">
         <v>471</v>
@@ -13161,7 +13182,7 @@
         <v>45909</v>
       </c>
       <c r="H250" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I250" s="13" t="b">
         <v>0</v>
@@ -13176,24 +13197,24 @@
         <v>111</v>
       </c>
       <c r="M250" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N250" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="251" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B251" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E251" s="21" t="s">
         <v>471</v>
@@ -13205,7 +13226,7 @@
         <v>45909</v>
       </c>
       <c r="H251" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I251" s="13" t="b">
         <v>0</v>
@@ -13220,24 +13241,24 @@
         <v>111</v>
       </c>
       <c r="M251" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N251" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="252" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B252" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E252" s="21" t="s">
         <v>471</v>
@@ -13249,7 +13270,7 @@
         <v>45909</v>
       </c>
       <c r="H252" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I252" s="13" t="b">
         <v>0</v>
@@ -13264,7 +13285,7 @@
         <v>111</v>
       </c>
       <c r="M252" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N252" s="13" t="s">
         <v>494</v>
@@ -13272,16 +13293,16 @@
     </row>
     <row r="253" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B253" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E253" s="21" t="s">
         <v>471</v>
@@ -13293,7 +13314,7 @@
         <v>45909</v>
       </c>
       <c r="H253" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I253" s="13" t="b">
         <v>0</v>
@@ -13308,7 +13329,7 @@
         <v>111</v>
       </c>
       <c r="M253" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N253" s="13" t="s">
         <v>494</v>
@@ -13316,58 +13337,58 @@
     </row>
     <row r="254" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C254" t="s">
+        <v>623</v>
+      </c>
+      <c r="D254" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E254" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="M254" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="N254" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C254" t="s">
-        <v>625</v>
-      </c>
-      <c r="D254" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="E254" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H254" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="I254" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J254" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="M254" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="N254" s="5" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="255" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D255" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E255" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H255" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="E255" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H255" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="I255" s="5" t="b">
         <v>0</v>
       </c>
@@ -13375,34 +13396,34 @@
         <v>0</v>
       </c>
       <c r="L255" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M255" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N255" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="256" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D256" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E256" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H256" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="E256" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H256" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="I256" s="5" t="b">
         <v>0</v>
       </c>
@@ -13410,34 +13431,34 @@
         <v>0</v>
       </c>
       <c r="L256" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M256" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N256" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="257" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D257" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E257" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H257" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="E257" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H257" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="I257" s="5" t="b">
         <v>0</v>
       </c>
@@ -13445,34 +13466,34 @@
         <v>0</v>
       </c>
       <c r="L257" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M257" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N257" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="258" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D258" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E258" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H258" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="E258" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H258" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="I258" s="5" t="b">
         <v>0</v>
       </c>
@@ -13480,68 +13501,68 @@
         <v>0</v>
       </c>
       <c r="L258" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M258" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N258" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="259" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D259" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E259" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I259" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="M259" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="N259" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="D259" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="E259" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H259" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="I259" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="M259" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="N259" s="5" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="260" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D260" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E260" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I260" s="5" t="b">
         <v>0</v>
@@ -13550,33 +13571,33 @@
         <v>0</v>
       </c>
       <c r="L260" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M260" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N260" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="261" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D261" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E261" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I261" s="5" t="b">
         <v>0</v>
@@ -13585,33 +13606,33 @@
         <v>0</v>
       </c>
       <c r="L261" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M261" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N261" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="262" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D262" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E262" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I262" s="5" t="b">
         <v>0</v>
@@ -13620,33 +13641,33 @@
         <v>0</v>
       </c>
       <c r="L262" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M262" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N262" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="263" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D263" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E263" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I263" s="5" t="b">
         <v>0</v>
@@ -13655,33 +13676,33 @@
         <v>0</v>
       </c>
       <c r="L263" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M263" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N263" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="264" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D264" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E264" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I264" s="5" t="b">
         <v>0</v>
@@ -13690,33 +13711,33 @@
         <v>0</v>
       </c>
       <c r="L264" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M264" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N264" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="265" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D265" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E265" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I265" s="5" t="b">
         <v>0</v>
@@ -13725,33 +13746,33 @@
         <v>0</v>
       </c>
       <c r="L265" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M265" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N265" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="266" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D266" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E266" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I266" s="5" t="b">
         <v>0</v>
@@ -13760,34 +13781,34 @@
         <v>0</v>
       </c>
       <c r="L266" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M266" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N266" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="267" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="D267" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E267" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H267" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="B267" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="E267" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H267" s="5" t="s">
-        <v>658</v>
-      </c>
       <c r="I267" s="5" t="b">
         <v>0</v>
       </c>
@@ -13795,33 +13816,33 @@
         <v>0</v>
       </c>
       <c r="L267" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M267" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N267" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="268" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E268" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I268" s="5" t="b">
         <v>0</v>
@@ -13830,33 +13851,33 @@
         <v>0</v>
       </c>
       <c r="L268" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M268" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N268" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="269" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C269" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D269" s="23" t="s">
         <v>687</v>
       </c>
-      <c r="D269" s="23" t="s">
-        <v>689</v>
-      </c>
       <c r="E269" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I269" s="5" t="b">
         <v>0</v>
@@ -13872,30 +13893,30 @@
         <v>111</v>
       </c>
       <c r="M269" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N269" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="270" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E270" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I270" s="5" t="b">
         <v>0</v>
@@ -13911,65 +13932,65 @@
         <v>111</v>
       </c>
       <c r="M270" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N270" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="271" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D271" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="E271" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="I271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="M271" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="B271" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="D271" s="23" t="s">
+      <c r="N271" s="5" t="s">
         <v>689</v>
-      </c>
-      <c r="E271" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H271" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="I271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="M271" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="N271" s="5" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="272" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E272" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I272" s="5" t="b">
         <v>0</v>
@@ -13982,33 +14003,33 @@
         <v>1</v>
       </c>
       <c r="L272" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M272" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N272" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="273" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D273" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E273" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I273" s="5" t="b">
         <v>0</v>
@@ -14021,33 +14042,33 @@
         <v>1</v>
       </c>
       <c r="L273" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M273" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N273" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="274" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E274" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I274" s="5" t="b">
         <v>0</v>
@@ -14060,33 +14081,33 @@
         <v>1</v>
       </c>
       <c r="L274" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M274" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N274" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="275" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D275" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E275" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I275" s="5" t="b">
         <v>0</v>
@@ -14099,33 +14120,33 @@
         <v>1</v>
       </c>
       <c r="L275" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M275" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N275" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="276" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E276" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I276" s="5" t="b">
         <v>0</v>
@@ -14138,33 +14159,33 @@
         <v>1</v>
       </c>
       <c r="L276" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M276" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N276" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="277" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E277" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I277" s="5" t="b">
         <v>0</v>
@@ -14177,33 +14198,33 @@
         <v>1</v>
       </c>
       <c r="L277" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M277" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N277" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="278" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C278" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="D278" s="24" t="s">
         <v>716</v>
       </c>
-      <c r="D278" s="24" t="s">
-        <v>718</v>
-      </c>
       <c r="E278" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I278" s="5" t="b">
         <v>0</v>
@@ -14216,33 +14237,33 @@
         <v>1</v>
       </c>
       <c r="L278" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M278" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N278" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="279" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C279" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D279" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="E279" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H279" s="5" t="s">
         <v>717</v>
-      </c>
-      <c r="D279" s="24" t="s">
-        <v>718</v>
-      </c>
-      <c r="E279" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H279" s="5" t="s">
-        <v>719</v>
       </c>
       <c r="I279" s="5" t="b">
         <v>0</v>
@@ -14255,33 +14276,33 @@
         <v>1</v>
       </c>
       <c r="L279" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M279" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N279" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="280" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D280" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E280" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I280" s="5" t="b">
         <v>0</v>
@@ -14297,30 +14318,30 @@
         <v>111</v>
       </c>
       <c r="M280" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N280" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D281" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E281" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I281" s="5" t="b">
         <v>0</v>
@@ -14336,30 +14357,30 @@
         <v>111</v>
       </c>
       <c r="M281" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N281" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C282" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D282" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="E282" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H282" s="5" t="s">
         <v>726</v>
-      </c>
-      <c r="D282" s="24" t="s">
-        <v>718</v>
-      </c>
-      <c r="E282" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H282" s="5" t="s">
-        <v>728</v>
       </c>
       <c r="I282" s="5" t="b">
         <v>0</v>
@@ -14375,7 +14396,7 @@
         <v>111</v>
       </c>
       <c r="M282" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N282" s="5" t="s">
         <v>494</v>
@@ -14383,22 +14404,22 @@
     </row>
     <row r="283" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D283" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E283" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I283" s="5" t="b">
         <v>0</v>
@@ -14414,7 +14435,7 @@
         <v>111</v>
       </c>
       <c r="M283" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N283" s="5" t="s">
         <v>494</v>
@@ -14422,28 +14443,28 @@
     </row>
     <row r="284" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A284" s="47" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B284" s="31" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C284" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D284" s="32" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E284" s="29" t="s">
         <v>344</v>
       </c>
       <c r="F284" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G284" s="42">
         <v>46112</v>
       </c>
       <c r="H284" s="31" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I284" s="31" t="b">
         <v>0</v>
@@ -14457,36 +14478,36 @@
         <v>111</v>
       </c>
       <c r="M284" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="N284" s="31" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="285" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A285" s="47" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B285" s="31" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C285" s="48" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D285" s="32" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E285" s="29" t="s">
         <v>344</v>
       </c>
       <c r="F285" s="35" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G285" s="42">
         <v>46112</v>
       </c>
       <c r="H285" s="31" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I285" s="31" t="b">
         <v>0</v>
@@ -14500,30 +14521,30 @@
         <v>111</v>
       </c>
       <c r="M285" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="N285" s="31" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="286" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D286" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E286" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H286" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I286" s="5" t="b">
         <v>0</v>
@@ -14533,33 +14554,33 @@
         <v>1</v>
       </c>
       <c r="L286" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M286" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N286" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="287" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D287" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E287" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H287" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I287" s="5" t="b">
         <v>0</v>
@@ -14569,33 +14590,33 @@
         <v>1</v>
       </c>
       <c r="L287" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M287" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N287" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D288" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E288" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H288" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I288" s="5" t="b">
         <v>0</v>
@@ -14605,33 +14626,33 @@
         <v>1</v>
       </c>
       <c r="L288" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M288" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N288" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="289" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D289" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E289" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H289" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I289" s="5" t="b">
         <v>0</v>
@@ -14641,33 +14662,33 @@
         <v>1</v>
       </c>
       <c r="L289" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M289" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N289" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="290" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D290" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E290" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I290" s="5" t="b">
         <v>0</v>
@@ -14677,33 +14698,33 @@
         <v>1</v>
       </c>
       <c r="L290" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M290" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N290" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="291" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D291" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E291" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I291" s="5" t="b">
         <v>0</v>
@@ -14713,33 +14734,33 @@
         <v>1</v>
       </c>
       <c r="L291" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M291" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N291" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="292" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D292" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E292" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I292" s="5" t="b">
         <v>0</v>
@@ -14749,33 +14770,33 @@
         <v>1</v>
       </c>
       <c r="L292" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M292" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N292" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="293" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D293" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E293" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I293" s="5" t="b">
         <v>0</v>
@@ -14785,33 +14806,33 @@
         <v>1</v>
       </c>
       <c r="L293" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M293" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N293" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="294" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D294" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E294" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I294" s="5" t="b">
         <v>0</v>
@@ -14821,33 +14842,33 @@
         <v>1</v>
       </c>
       <c r="L294" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M294" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N294" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="295" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D295" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E295" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I295" s="5" t="b">
         <v>0</v>
@@ -14857,33 +14878,33 @@
         <v>1</v>
       </c>
       <c r="L295" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M295" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N295" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="296" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D296" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E296" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I296" s="5" t="b">
         <v>0</v>
@@ -14893,33 +14914,33 @@
         <v>1</v>
       </c>
       <c r="L296" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M296" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N296" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="297" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D297" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E297" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I297" s="5" t="b">
         <v>0</v>
@@ -14929,33 +14950,33 @@
         <v>1</v>
       </c>
       <c r="L297" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M297" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N297" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="298" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D298" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E298" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I298" s="5" t="b">
         <v>0</v>
@@ -14965,33 +14986,33 @@
         <v>1</v>
       </c>
       <c r="L298" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M298" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N298" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="299" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D299" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E299" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I299" s="5" t="b">
         <v>0</v>
@@ -15001,33 +15022,33 @@
         <v>1</v>
       </c>
       <c r="L299" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M299" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N299" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="300" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D300" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E300" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I300" s="5" t="b">
         <v>0</v>
@@ -15037,33 +15058,33 @@
         <v>1</v>
       </c>
       <c r="L300" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M300" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N300" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="301" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D301" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E301" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I301" s="5" t="b">
         <v>0</v>
@@ -15073,33 +15094,33 @@
         <v>1</v>
       </c>
       <c r="L301" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M301" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N301" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="302" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D302" s="24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E302" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I302" s="5" t="b">
         <v>0</v>
@@ -15109,34 +15130,34 @@
         <v>1</v>
       </c>
       <c r="L302" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M302" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="N302" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="303" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="D303" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="E303" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H303" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="B303" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="D303" s="24" t="s">
-        <v>718</v>
-      </c>
-      <c r="E303" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H303" s="5" t="s">
-        <v>809</v>
-      </c>
       <c r="I303" s="5" t="b">
         <v>0</v>
       </c>
@@ -15144,33 +15165,33 @@
         <v>0</v>
       </c>
       <c r="L303" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M303" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="N303" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="304" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D304" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="E304" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H304" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="D304" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="E304" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H304" s="5" t="s">
-        <v>813</v>
       </c>
       <c r="I304" s="5" t="b">
         <v>0</v>
@@ -15183,65 +15204,65 @@
         <v>416</v>
       </c>
       <c r="M304" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="N304" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="305" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D305" s="24" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E305" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H305" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="I305" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J305" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L305" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="M305" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="N305" s="5" t="s">
         <v>817</v>
-      </c>
-      <c r="I305" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J305" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L305" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="M305" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="N305" s="5" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="306" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C306" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D306" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="E306" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H306" s="5" t="s">
         <v>825</v>
-      </c>
-      <c r="D306" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="E306" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H306" s="5" t="s">
-        <v>827</v>
       </c>
       <c r="I306" s="5" t="b">
         <v>0</v>
@@ -15257,30 +15278,30 @@
         <v>111</v>
       </c>
       <c r="M306" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N306" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="307" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C307" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D307" s="24" t="s">
         <v>824</v>
       </c>
-      <c r="D307" s="24" t="s">
-        <v>826</v>
-      </c>
       <c r="E307" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I307" s="5" t="b">
         <v>0</v>
@@ -15296,30 +15317,30 @@
         <v>111</v>
       </c>
       <c r="M307" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N307" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="308" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D308" s="24" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E308" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I308" s="5" t="b">
         <v>0</v>
@@ -15332,109 +15353,109 @@
         <v>1</v>
       </c>
       <c r="L308" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M308" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N308" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="309" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C309" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="B309" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>846</v>
-      </c>
       <c r="D309" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="E309" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H309" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="I309" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J309" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K309" s="20">
+        <v>1</v>
+      </c>
+      <c r="L309" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="E309" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H309" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="I309" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J309" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K309" s="20">
-        <v>1</v>
-      </c>
-      <c r="L309" s="4" t="s">
-        <v>830</v>
-      </c>
       <c r="M309" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="N309" s="36" t="s">
-        <v>540</v>
+        <v>828</v>
+      </c>
+      <c r="N309" s="50" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="310" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C310" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="B310" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C310" s="5" t="s">
-        <v>847</v>
-      </c>
       <c r="D310" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="E310" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="I310" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J310" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K310" s="20">
+        <v>1</v>
+      </c>
+      <c r="L310" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="E310" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H310" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="I310" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J310" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K310" s="20">
-        <v>1</v>
-      </c>
-      <c r="L310" s="4" t="s">
-        <v>830</v>
-      </c>
       <c r="M310" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="N310" s="36" t="s">
-        <v>541</v>
+        <v>828</v>
+      </c>
+      <c r="N310" s="50" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="311" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D311" s="24" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E311" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I311" s="5" t="b">
         <v>0</v>
@@ -15449,30 +15470,30 @@
         <v>111</v>
       </c>
       <c r="M311" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N311" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="312" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D312" s="24" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E312" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I312" s="5" t="b">
         <v>0</v>
@@ -15487,30 +15508,30 @@
         <v>111</v>
       </c>
       <c r="M312" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N312" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="313" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C313" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D313" s="24" t="s">
         <v>855</v>
       </c>
-      <c r="D313" s="24" t="s">
-        <v>857</v>
-      </c>
       <c r="E313" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I313" s="5" t="b">
         <v>0</v>
@@ -15525,7 +15546,7 @@
         <v>111</v>
       </c>
       <c r="M313" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N313" s="5" t="s">
         <v>494</v>
@@ -15533,22 +15554,22 @@
     </row>
     <row r="314" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C314" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D314" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="E314" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H314" s="5" t="s">
         <v>856</v>
-      </c>
-      <c r="D314" s="24" t="s">
-        <v>857</v>
-      </c>
-      <c r="E314" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H314" s="5" t="s">
-        <v>858</v>
       </c>
       <c r="I314" s="5" t="b">
         <v>0</v>
@@ -15563,7 +15584,7 @@
         <v>111</v>
       </c>
       <c r="M314" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N314" s="5" t="s">
         <v>494</v>
@@ -15571,23 +15592,23 @@
     </row>
     <row r="315" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D315" s="24" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E315" s="20" t="s">
         <v>345</v>
       </c>
       <c r="F315" s="49"/>
       <c r="H315" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I315" s="5" t="b">
         <v>0</v>
@@ -15600,10 +15621,10 @@
         <v>111</v>
       </c>
       <c r="M315" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="N315" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
   </sheetData>
